--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\AngVel\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FB9A9E-DD55-4B26-8D74-2C53634F5E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C977B416-B557-4F71-A0E9-70FEE5DC7C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{B6ABA89F-004F-4169-A2B6-C369A05EF39E}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{18C555F3-4D1E-45BC-AB44-D6873D7196A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CD070B-BAF4-413A-93CE-0513E991EAEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B608963-2910-4B2F-9897-C078713DFC54}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\AngVel\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C977B416-B557-4F71-A0E9-70FEE5DC7C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E0CCFA-822C-46CD-8EC4-07FFA994F978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{18C555F3-4D1E-45BC-AB44-D6873D7196A3}"/>
+    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{59411301-BE2C-473C-9730-06BD7A77A22C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B608963-2910-4B2F-9897-C078713DFC54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432FF7B0-4D4C-40AD-9BB7-B4058E3965CE}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>2.4889309097838561</v>
+        <v>1.3084943509651432</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\AngVel\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E0CCFA-822C-46CD-8EC4-07FFA994F978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF128DD-5A3A-4E89-A72C-BDF1EC0A3523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{59411301-BE2C-473C-9730-06BD7A77A22C}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{8B4C17DF-BA8F-4A76-8585-86979A97EEE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,14 +401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432FF7B0-4D4C-40AD-9BB7-B4058E3965CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C956BFB-2F55-4D8E-BDDD-1B2E7F0D90D4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1.3084943509651432</v>
       </c>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\AngVel\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF128DD-5A3A-4E89-A72C-BDF1EC0A3523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262BE81D-9E7D-46DB-8A54-9C349D54DBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{8B4C17DF-BA8F-4A76-8585-86979A97EEE7}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{BA82DF7E-1782-4E5A-9434-C4F66A5CB1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C956BFB-2F55-4D8E-BDDD-1B2E7F0D90D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A6BEED-C8BA-48DD-8A2F-33C9CD583C70}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
